--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_7_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_7_square_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.58000000000056</v>
+        <v>25.37000000000053</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.846524781081342e-16</v>
+        <v>1.831295710721908e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>54.79115513750228</v>
+        <v>49.60593769851756</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[47.86442157618772, 61.717888698816836]</t>
+          <t>[42.8128269249299, 56.399048472105214]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.66671081721981</v>
+        <v>1.364816027685656</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.540921321580579, 1.7925003128590413]</t>
+          <t>[1.2138686329185786, 1.515763422452733]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>61.35244386966864</v>
+        <v>55.53725304696597</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[56.977078025798754, 65.72780971353853]</t>
+          <t>[51.378061343722685, 59.696444750209245]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.79451451451493</v>
+        <v>19.85919919919961</v>
       </c>
       <c r="X2" t="n">
-        <v>18.2824024024028</v>
+        <v>19.24970970971011</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.30662662662705</v>
+        <v>20.46868868868911</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.40000000000053</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,18 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.846524781081342e-16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.01685808507314179</v>
-      </c>
+        <v>1.831295710721908e-16</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>60.17205805339412</v>
+        <v>55.32752231041231</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[52.84029575973378, 67.50382034705447]</t>
+          <t>[48.33881316001128, 62.31623146081335]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -682,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.150973885098963</v>
+        <v>1.352237078121733</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.0251843894597323, 1.2767633807381946]</t>
+          <t>[1.2138686329185786, 1.490605523324887]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -696,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>59.94345379606534</v>
+        <v>57.76601424199836</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[55.83141307384432, 64.05549451828637]</t>
+          <t>[53.63233692098918, 61.89969156300754]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>20.74714714714758</v>
+        <v>20.00416416416459</v>
       </c>
       <c r="X3" t="n">
-        <v>20.23863863863906</v>
+        <v>19.44282282282324</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.2556556556561</v>
+        <v>20.56550550550595</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_7_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_7_square_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.37000000000053</v>
+        <v>25.65000000000057</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.831295710721908e-16</v>
+        <v>1.869849304631842e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>49.60593769851756</v>
+        <v>49.60327264919263</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[42.8128269249299, 56.399048472105214]</t>
+          <t>[42.728112217857635, 56.478433080527616]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.364816027685656</v>
+        <v>1.691868716347656</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2138686329185786, 1.515763422452733]</t>
+          <t>[1.540921321580579, 1.8428161111147334]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>55.53725304696597</v>
+        <v>56.73508413758032</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[51.378061343722685, 59.696444750209245]</t>
+          <t>[52.39017973698078, 61.07998853817987]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.85919919919961</v>
+        <v>18.74324324324366</v>
       </c>
       <c r="X2" t="n">
-        <v>19.24970970971011</v>
+        <v>18.12702702702743</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.46868868868911</v>
+        <v>19.35945945945989</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.49000000000055</v>
+        <v>25.34000000000052</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.831295710721908e-16</v>
+        <v>1.869849304631842e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>55.32752231041231</v>
+        <v>53.39523717560706</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[48.33881316001128, 62.31623146081335]</t>
+          <t>[45.67135774137326, 61.11911660984087]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.352237078121733</v>
+        <v>1.000026490331886</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.2138686329185786, 1.490605523324887]</t>
+          <t>[0.8490790955648091, 1.1509738850989635]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>57.76601424199836</v>
+        <v>57.42157513251374</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[53.63233692098918, 61.89969156300754]</t>
+          <t>[53.42340204276144, 61.41974822226605]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>20.00416416416459</v>
+        <v>21.30690690690734</v>
       </c>
       <c r="X3" t="n">
-        <v>19.44282282282324</v>
+        <v>20.69813813813856</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.56550550550595</v>
+        <v>21.91567567567613</v>
       </c>
     </row>
   </sheetData>
